--- a/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataPJ.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153207CC-EFA3-4763-AEC6-B11ACB0F3490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FAF83A-B3CB-409B-8395-230F21BBD7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="3820" windowWidth="28800" windowHeight="15460" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="36">
   <si>
     <t>Gross calorific values</t>
   </si>
@@ -132,7 +132,7 @@
     <t>PJ</t>
   </si>
   <si>
-    <t>Aggregate energy balance (PetaJoules), Scotland, 2019</t>
+    <t>Aggregate energy balance (PetaJoules), Scotland, 2020</t>
   </si>
 </sst>
 </file>
@@ -587,23 +587,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E34935-EB74-4926-BE8C-7B40FCC27029}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="30.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -617,7 +619,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,7 +635,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -663,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -677,32 +679,27 @@
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="16">
-        <f>268*(0.000041868*1000)</f>
-        <v>11.220624000000001</v>
+        <v>4.3334979999999996</v>
       </c>
       <c r="C5" s="16">
-        <f>53881*(0.000041868*1000)</f>
-        <v>2255.8897080000002</v>
+        <v>2130.3941149913849</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="16">
-        <f>19934*(0.000041868*1000)</f>
-        <v>834.59671200000003</v>
+        <v>1112.4575793694012</v>
       </c>
       <c r="F5" s="16">
-        <f>762*(0.000041868*1000)</f>
-        <v>31.903416000000004</v>
+        <v>35.125816476169248</v>
       </c>
       <c r="G5" s="16">
-        <f>5296*(0.000041868*1000)</f>
-        <v>221.73292800000002</v>
+        <v>238.51646143210007</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>12</v>
@@ -711,50 +708,42 @@
         <v>12</v>
       </c>
       <c r="J5" s="16">
-        <f>80141*(0.000041868*1000)</f>
-        <v>3355.3433880000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>3520.8274702690555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="16">
-        <f>0*(0.000041868*1000)</f>
-        <v>0</v>
+        <v>1.03986E-7</v>
       </c>
       <c r="C6" s="16">
-        <f>7103*(0.000041868*1000)</f>
-        <v>297.38840400000004</v>
+        <v>230.90953932628284</v>
       </c>
       <c r="D6" s="16">
-        <f>2519*(0.000041868*1000)</f>
-        <v>105.46549200000001</v>
+        <v>96.250423233577649</v>
       </c>
       <c r="E6" s="16">
-        <f>9497*(0.000041868*1000)</f>
-        <v>397.62039600000003</v>
+        <v>353.04427540800197</v>
       </c>
       <c r="F6" s="16">
-        <f>318*(0.000041868*1000)</f>
-        <v>13.314024000000002</v>
+        <v>16.616742404018041</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16">
-        <f>107*(0.000041868*1000)</f>
-        <v>4.479876</v>
+        <v>1.1161818000000061</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="16">
-        <f>19544*(0.000041868*1000)</f>
-        <v>818.268192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>697.9371622758664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -762,16 +751,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="16">
-        <f>7103*(0.000041868*1000)</f>
-        <v>297.38840400000004</v>
+        <v>230.90953932628284</v>
       </c>
       <c r="D7" s="16">
-        <f>1800*(0.000041868*1000)</f>
-        <v>75.362400000000008</v>
+        <v>73.566511984688447</v>
       </c>
       <c r="E7" s="16">
-        <f>9459*(0.000041868*1000)</f>
-        <v>396.02941200000004</v>
+        <v>351.46245600000191</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>12</v>
@@ -789,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -797,16 +783,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <f>719*(0.000041868*1000)</f>
-        <v>30.103092</v>
+        <v>22.683911248889196</v>
       </c>
       <c r="E8" s="16">
-        <f>38*(0.000041868*1000)</f>
-        <v>1.5909840000000002</v>
+        <v>1.5818194080000088</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>12</v>
@@ -815,8 +798,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="16">
-        <f>107*(0.000041868*1000)</f>
-        <v>4.479876</v>
+        <v>1.1161818000000061</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>12</v>
@@ -825,46 +807,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <f>-147*(0.000041868*1000)</f>
-        <v>-6.1545960000000006</v>
+        <v>-1.8465389039859996</v>
       </c>
       <c r="C9" s="16">
-        <f>-50098*(0.000041868*1000)</f>
-        <v>-2097.503064</v>
+        <v>-1956.7471936999691</v>
       </c>
       <c r="D9" s="16">
-        <f>-5063*(0.000041868*1000)</f>
-        <v>-211.97768400000001</v>
+        <v>-239.6203444010329</v>
       </c>
       <c r="E9" s="16">
-        <f>-20211*(0.000041868*1000)</f>
-        <v>-846.19414800000004</v>
+        <v>-1082.2735156853967</v>
       </c>
       <c r="F9" s="16">
-        <f>-24*(0.000041868*1000)</f>
-        <v>-1.0048319999999999</v>
+        <v>-1.3257200291988658</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="16">
-        <f>-1470*(0.000041868*1000)</f>
-        <v>-61.545960000000001</v>
+        <v>-69.697267200000368</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="16">
-        <f>-77013*(0.000041868*1000)</f>
-        <v>-3224.3802840000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-3351.5105799195835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -872,16 +847,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="16">
-        <f>-37700*(0.000041868*1000)</f>
-        <v>-1578.4236000000001</v>
+        <v>-1251.2490773650659</v>
       </c>
       <c r="D10" s="16">
-        <f>-3237*(0.000041868*1000)</f>
-        <v>-135.52671600000002</v>
+        <v>-122.29570686953552</v>
       </c>
       <c r="E10" s="16">
-        <f>-2676*(0.000041868*1000)</f>
-        <v>-112.038768</v>
+        <v>-136.62525600000075</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>12</v>
@@ -899,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -907,16 +879,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="16">
-        <f>-12399*(0.000041868*1000)</f>
-        <v>-519.12133200000005</v>
+        <v>-705.49811633490333</v>
       </c>
       <c r="D11" s="16">
-        <f>-1826*(0.000041868*1000)</f>
-        <v>-76.450968000000003</v>
+        <v>-117.32463753149736</v>
       </c>
       <c r="E11" s="16">
-        <f>-17535*(0.000041868*1000)</f>
-        <v>-734.15538000000004</v>
+        <v>-945.64825968539594</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>12</v>
@@ -925,8 +894,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="16">
-        <f>-1470*(0.000041868*1000)</f>
-        <v>-61.545960000000001</v>
+        <v>-69.697267200000368</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>12</v>
@@ -935,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -946,8 +914,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="16">
-        <f>-958*(0.000041868*1000)</f>
-        <v>-40.109544</v>
+        <v>-30.099960182718924</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>12</v>
@@ -965,25 +932,21 @@
         <v>12</v>
       </c>
       <c r="J12" s="16">
-        <f>-958*(0.000041868*1000)</f>
-        <v>-40.109544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-30.099960182718924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="C13" s="16">
-        <f>-14*(0.000041868*1000)</f>
-        <v>-0.58615200000000001</v>
+        <v>1.0620865217742717</v>
       </c>
       <c r="D13" s="16">
-        <f>-97*(0.000041868*1000)</f>
-        <v>-4.0611959999999998</v>
+        <v>-3.8101757818642259</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>12</v>
@@ -1001,68 +964,55 @@
         <v>12</v>
       </c>
       <c r="J13" s="16">
-        <f>-111*(0.000041868*1000)</f>
-        <v>-4.647348</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-2.7480892600899542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="16">
-        <f>122*(0.000041868*1000)</f>
-        <v>5.1078960000000002</v>
+        <v>2.4869592000000003</v>
       </c>
       <c r="C14" s="16">
-        <f>10871*(0.000041868*1000)</f>
-        <v>455.14702800000003</v>
+        <v>405.61854713947281</v>
       </c>
       <c r="D14" s="16">
-        <f>-3599*(0.000041868*1000)</f>
-        <v>-150.68293200000002</v>
+        <v>-177.28005713203839</v>
       </c>
       <c r="E14" s="16">
-        <f>9220*(0.000041868*1000)</f>
-        <v>386.02296000000001</v>
+        <v>383.22833909200631</v>
       </c>
       <c r="F14" s="16">
-        <f>1057*(0.000041868*1000)</f>
-        <v>44.254476000000004</v>
+        <v>50.37811371814572</v>
       </c>
       <c r="G14" s="16">
-        <f>5296*(0.000041868*1000)</f>
-        <v>221.73292800000002</v>
+        <v>238.51646143210007</v>
       </c>
       <c r="H14" s="16">
-        <f>-1363*(0.000041868*1000)</f>
-        <v>-57.066084000000004</v>
+        <v>-68.581085400000362</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="16">
-        <f>21603*(0.000041868*1000)</f>
-        <v>904.47440400000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>834.36727804968598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="C15" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="D15" s="16">
-        <f>-3*(0.000041868*1000)</f>
-        <v>-0.12560399999999999</v>
+        <v>-7.8979100205684188E-2</v>
       </c>
       <c r="E15" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="F15" s="16" t="s">
@@ -1072,58 +1022,48 @@
         <v>12</v>
       </c>
       <c r="H15" s="16">
-        <f>0*(0.000041868*1000)</f>
-        <v>0</v>
+        <v>-1.0670688000000406</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="16">
-        <f>-3*(0.000041868*1000)</f>
-        <v>-0.12560399999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-1.1460479002057247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="16">
-        <f>122*(0.000041868*1000)</f>
-        <v>5.1078960000000002</v>
+        <v>2.4869592000000003</v>
       </c>
       <c r="C16" s="16">
-        <f>10871*(0.000041868*1000)</f>
-        <v>455.14702800000003</v>
+        <v>405.6185471394727</v>
       </c>
       <c r="D16" s="16">
-        <f>-3602*(0.000041868*1000)</f>
-        <v>-150.808536</v>
+        <v>-177.35903623224408</v>
       </c>
       <c r="E16" s="16">
-        <f>9220*(0.000041868*1000)</f>
-        <v>386.02296000000001</v>
+        <v>383.22833909200631</v>
       </c>
       <c r="F16" s="16">
-        <f>1057*(0.000041868*1000)</f>
-        <v>44.254476000000004</v>
+        <v>50.37811371814572</v>
       </c>
       <c r="G16" s="16">
-        <f>5296*(0.000041868*1000)</f>
-        <v>221.73292800000002</v>
+        <v>238.51646143210007</v>
       </c>
       <c r="H16" s="16">
-        <f>-1363*(0.000041868*1000)</f>
-        <v>-57.066084000000004</v>
+        <v>-69.648154200000405</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="16">
-        <f>21600*(0.000041868*1000)</f>
-        <v>904.3488000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>833.22123014948011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1131,12 +1071,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="16">
-        <f>-1075*(0.000041868*1000)</f>
-        <v>-45.008100000000006</v>
+        <v>-67.976063330032432</v>
       </c>
       <c r="D17" s="16">
-        <f>1075*(0.000041868*1000)</f>
-        <v>45.008100000000006</v>
+        <v>67.976063330032432</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>12</v>
@@ -1145,102 +1083,83 @@
         <v>12</v>
       </c>
       <c r="G17" s="16">
-        <f>-2412*(0.000041868*1000)</f>
-        <v>-100.98561600000001</v>
+        <v>-106.65345600000059</v>
       </c>
       <c r="H17" s="16">
-        <f>2412*(0.000041868*1000)</f>
-        <v>100.98561600000001</v>
+        <v>106.65345600000059</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J17" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <f>-9796*(0.000041868*1000)</f>
-        <v>-410.13892800000002</v>
+        <v>-337.64248380944031</v>
       </c>
       <c r="D18" s="16">
-        <f>9591*(0.000041868*1000)</f>
-        <v>401.55598800000001</v>
+        <v>330.78079550446068</v>
       </c>
       <c r="E18" s="16">
-        <f>-1233*(0.000041868*1000)</f>
-        <v>-51.623244</v>
+        <v>-47.732337398463415</v>
       </c>
       <c r="F18" s="16">
-        <f>-620*(0.000041868*1000)</f>
-        <v>-25.958160000000003</v>
+        <v>-25.561227094320639</v>
       </c>
       <c r="G18" s="16">
-        <f>-2884*(0.000041868*1000)</f>
-        <v>-120.74731200000001</v>
+        <v>-131.86300543209947</v>
       </c>
       <c r="H18" s="16">
-        <f>1885*(0.000041868*1000)</f>
-        <v>78.921180000000007</v>
+        <v>80.059358160000443</v>
       </c>
       <c r="I18" s="16">
-        <f>120*(0.000041868*1000)</f>
-        <v>5.0241600000000002</v>
+        <v>5.0414352776156699</v>
       </c>
       <c r="J18" s="16">
-        <f>-2937*(0.000041868*1000)</f>
-        <v>-122.96631600000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-126.91746479224702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="16">
-        <f>-58*(0.000041868*1000)</f>
-        <v>-2.4283440000000001</v>
+        <v>-2.5806810063280947</v>
       </c>
       <c r="E19" s="16">
-        <f>-1065*(0.000041868*1000)</f>
-        <v>-44.589420000000004</v>
+        <v>-40.551055703495145</v>
       </c>
       <c r="F19" s="16">
-        <f>-607*(0.000041868*1000)</f>
-        <v>-25.413876000000002</v>
+        <v>-25.068960000000143</v>
       </c>
       <c r="G19" s="16">
-        <f>-2884*(0.000041868*1000)</f>
-        <v>-120.74731200000001</v>
+        <v>-131.86300543209947</v>
       </c>
       <c r="H19" s="16">
-        <f>1885*(0.000041868*1000)</f>
-        <v>78.921180000000007</v>
+        <v>80.059358160000443</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="16">
-        <f>-2730*(0.000041868*1000)</f>
-        <v>-114.29964000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-120.00434398192239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1248,12 +1167,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="16">
-        <f>-9796*(0.000041868*1000)</f>
-        <v>-410.13892800000002</v>
+        <v>-337.64248380944031</v>
       </c>
       <c r="D20" s="16">
-        <f>9710*(0.000041868*1000)</f>
-        <v>406.53828000000004</v>
+        <v>335.95541058076111</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -1271,32 +1188,27 @@
         <v>12</v>
       </c>
       <c r="J20" s="16">
-        <f>-86*(0.000041868*1000)</f>
-        <v>-3.6006480000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-1.687073228679189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="16">
-        <f>0*(0.000041868*1000)</f>
         <v>0</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="16">
-        <f>-61*(0.000041868*1000)</f>
-        <v>-2.5539480000000001</v>
+        <v>-2.5939340699723199</v>
       </c>
       <c r="E21" s="16">
-        <f>-167*(0.000041868*1000)</f>
-        <v>-6.9919560000000001</v>
+        <v>-7.1812816949682761</v>
       </c>
       <c r="F21" s="16">
-        <f>-13*(0.000041868*1000)</f>
-        <v>-0.54428399999999999</v>
+        <v>-0.49226709432049659</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>12</v>
@@ -1305,15 +1217,13 @@
         <v>12</v>
       </c>
       <c r="I21" s="16">
-        <f>120*(0.000041868*1000)</f>
-        <v>5.0241600000000002</v>
+        <v>5.0414352776156699</v>
       </c>
       <c r="J21" s="16">
-        <f>-121*(0.000041868*1000)</f>
-        <v>-5.0660280000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-5.2260475816454219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1324,12 +1234,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="16">
-        <f>569*(0.000041868*1000)</f>
-        <v>23.822892000000003</v>
+        <v>19.118865786139715</v>
       </c>
       <c r="E22" s="16">
-        <f>3834*(0.000041868*1000)</f>
-        <v>160.52191200000001</v>
+        <v>171.35148312413477</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>12</v>
@@ -1338,58 +1246,48 @@
         <v>12</v>
       </c>
       <c r="H22" s="16">
-        <f>407*(0.000041868*1000)</f>
-        <v>17.040276000000002</v>
+        <v>16.339456800000089</v>
       </c>
       <c r="I22" s="16">
-        <f>23*(0.000041868*1000)</f>
-        <v>0.96296400000000004</v>
+        <v>3.9967204396106042</v>
       </c>
       <c r="J22" s="16">
-        <f>4833*(0.000041868*1000)</f>
-        <v>202.34804400000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>210.80652614988517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="16">
-        <f>122*(0.000041868*1000)</f>
-        <v>5.1078960000000002</v>
+        <v>2.4869592000000003</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="16">
-        <f>6496*(0.000041868*1000)</f>
-        <v>271.97452800000002</v>
+        <v>202.27895681610931</v>
       </c>
       <c r="E23" s="16">
-        <f>4153*(0.000041868*1000)</f>
-        <v>173.877804</v>
+        <v>164.14451856940809</v>
       </c>
       <c r="F23" s="16">
-        <f>436*(0.000041868*1000)</f>
-        <v>18.254448</v>
+        <v>24.816886623825074</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="16">
-        <f>2526*(0.000041868*1000)</f>
-        <v>105.75856800000001</v>
+        <v>100.72520316000055</v>
       </c>
       <c r="I23" s="16">
-        <f>98*(0.000041868*1000)</f>
-        <v>4.1030639999999998</v>
+        <v>1.0447148380050655</v>
       </c>
       <c r="J23" s="16">
-        <f>13831*(0.000041868*1000)</f>
-        <v>579.07630800000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>495.49723920734806</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -1400,12 +1298,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="16">
-        <f>1014*(0.000041868*1000)</f>
-        <v>42.454152000000001</v>
-      </c>
-      <c r="E24" s="16">
-        <f>57*(0.000041868*1000)</f>
-        <v>2.386476</v>
+        <v>38.987578067690571</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>12</v>
@@ -1417,165 +1313,138 @@
         <v>12</v>
       </c>
       <c r="I24" s="16">
-        <f>61*(0.000041868*1000)</f>
-        <v>2.5539480000000001</v>
+        <v>0.3710148318905816</v>
       </c>
       <c r="J24" s="16">
-        <f>1133*(0.000041868*1000)</f>
-        <v>47.436444000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>39.358592899581154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="16">
-        <f>76*(0.000041868*1000)</f>
-        <v>3.1819680000000004</v>
+        <v>1.9852157629625018</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <f>183*(0.000041868*1000)</f>
-        <v>7.6618440000000003</v>
+        <v>7.9406844072898002</v>
       </c>
       <c r="E25" s="16">
-        <f>873*(0.000041868*1000)</f>
-        <v>36.550764000000001</v>
+        <v>34.531103908298256</v>
       </c>
       <c r="F25" s="16">
-        <f>87*(0.000041868*1000)</f>
-        <v>3.6425160000000001</v>
+        <v>6.9700766449369986</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="16">
-        <f>718*(0.000041868*1000)</f>
-        <v>30.061224000000003</v>
+        <v>21.599966445513047</v>
       </c>
       <c r="I25" s="16">
-        <f>10*(0.000041868*1000)</f>
-        <v>0.41868000000000005</v>
+        <v>4.4597106994153583E-2</v>
       </c>
       <c r="J25" s="16">
-        <f>1947*(0.000041868*1000)</f>
-        <v>81.516996000000006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>73.071644275994743</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="16">
-        <f>43*(0.000041868*1000)</f>
-        <v>1.800324</v>
+        <v>0.36722298638534562</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="16">
-        <f>268*(0.000041868*1000)</f>
-        <v>11.220624000000001</v>
+        <v>10.68030531031787</v>
       </c>
       <c r="E26" s="16">
-        <f>2368*(0.000041868*1000)</f>
-        <v>99.14342400000001</v>
+        <v>93.958470539990913</v>
       </c>
       <c r="F26" s="16">
-        <f>146*(0.000041868*1000)</f>
-        <v>6.1127280000000006</v>
+        <v>4.2589032297553997</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="16">
-        <f>1025*(0.000041868*1000)</f>
-        <v>42.914700000000003</v>
+        <v>56.220666182109689</v>
       </c>
       <c r="I26" s="16">
-        <f>26*(0.000041868*1000)</f>
-        <v>1.088568</v>
+        <v>0.62910289912033279</v>
       </c>
       <c r="J26" s="16">
-        <f>3877*(0.000041868*1000)</f>
-        <v>162.322236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>166.11467114767956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="16">
-        <f>0*(0.000041868*1000)</f>
-        <v>0</v>
+        <v>1.3454042574763283E-2</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="16">
-        <f>4497*(0.000041868*1000)</f>
-        <v>188.28039600000002</v>
+        <v>127.71211717778981</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="16">
-        <f>116*(0.000041868*1000)</f>
-        <v>4.8566880000000001</v>
+        <v>7.3880163823345608</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="16">
-        <f>43*(0.000041868*1000)</f>
-        <v>1.800324</v>
+        <v>1.3814249681360318</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="16">
-        <f>4656*(0.000041868*1000)</f>
-        <v>194.937408</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>136.49501257083517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="16">
-        <f>2*(0.000041868*1000)</f>
-        <v>8.3736000000000005E-2</v>
+        <v>5.0547404509860901E-2</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="16">
-        <f>534*(0.000041868*1000)</f>
-        <v>22.357512</v>
+        <v>16.95827185302128</v>
       </c>
       <c r="E28" s="16">
-        <f>855*(0.000041868*1000)</f>
-        <v>35.797139999999999</v>
+        <v>33.320350209354189</v>
       </c>
       <c r="F28" s="16">
-        <f>87*(0.000041868*1000)</f>
-        <v>3.6425160000000001</v>
+        <v>6.1998903667981171</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="16">
-        <f>740*(0.000041868*1000)</f>
-        <v>30.982320000000001</v>
+        <v>21.523145564241776</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="16">
-        <f>2218*(0.000041868*1000)</f>
-        <v>92.863224000000002</v>
+        <v>78.052205397925221</v>
       </c>
     </row>
   </sheetData>
